--- a/data/pca/factorExposure/factorExposure_2009-03-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-03-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01743005666531747</v>
+        <v>0.01691119649488416</v>
       </c>
       <c r="C2">
-        <v>-0.002197815124774121</v>
+        <v>0.001609591798754456</v>
       </c>
       <c r="D2">
-        <v>0.007328730399563298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.008085626059520087</v>
+      </c>
+      <c r="E2">
+        <v>0.002880525918846219</v>
+      </c>
+      <c r="F2">
+        <v>0.01970762610455383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08487153104959798</v>
+        <v>0.0880318332687601</v>
       </c>
       <c r="C4">
-        <v>-0.01954926444644841</v>
+        <v>0.01550002432133459</v>
       </c>
       <c r="D4">
-        <v>0.0821452204189082</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08505217230296452</v>
+      </c>
+      <c r="E4">
+        <v>0.03824613098034674</v>
+      </c>
+      <c r="F4">
+        <v>-0.04432459433088168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0006490048259589257</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5.915188145997945e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0003076033998199416</v>
+      </c>
+      <c r="E5">
+        <v>-0.000152317466744425</v>
+      </c>
+      <c r="F5">
+        <v>7.431940297581104e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1603995347667659</v>
+        <v>0.166219987348432</v>
       </c>
       <c r="C6">
-        <v>-0.03712692599670381</v>
+        <v>0.0351652031806854</v>
       </c>
       <c r="D6">
-        <v>-0.02501744373418096</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01525055228006726</v>
+      </c>
+      <c r="E6">
+        <v>0.02142030112920815</v>
+      </c>
+      <c r="F6">
+        <v>-0.05271011385982768</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05491658933914009</v>
+        <v>0.05974168652903887</v>
       </c>
       <c r="C7">
-        <v>-0.001481564524435193</v>
+        <v>-0.001375152940064272</v>
       </c>
       <c r="D7">
-        <v>0.0486545041008388</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05352974982544163</v>
+      </c>
+      <c r="E7">
+        <v>0.01550685996486505</v>
+      </c>
+      <c r="F7">
+        <v>-0.05471378932635613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05718835299528977</v>
+        <v>0.0543751944805712</v>
       </c>
       <c r="C8">
-        <v>0.009936924381512039</v>
+        <v>-0.01141159665332284</v>
       </c>
       <c r="D8">
-        <v>0.02923249125043251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03133766908172466</v>
+      </c>
+      <c r="E8">
+        <v>0.01121956277682492</v>
+      </c>
+      <c r="F8">
+        <v>0.03636598335623879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06625160127710845</v>
+        <v>0.0692150233505593</v>
       </c>
       <c r="C9">
-        <v>-0.01520817857891035</v>
+        <v>0.01122937025424289</v>
       </c>
       <c r="D9">
-        <v>0.08710006673880516</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.09006296183342534</v>
+      </c>
+      <c r="E9">
+        <v>0.03456337340687973</v>
+      </c>
+      <c r="F9">
+        <v>-0.06532194089233714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.09348024857587187</v>
+        <v>0.09051145214656366</v>
       </c>
       <c r="C10">
-        <v>-0.02353227061511662</v>
+        <v>0.02533904435088136</v>
       </c>
       <c r="D10">
-        <v>-0.1623066716866488</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1529903544988417</v>
+      </c>
+      <c r="E10">
+        <v>-0.03990101075569633</v>
+      </c>
+      <c r="F10">
+        <v>0.07098171527316874</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08653742836893745</v>
+        <v>0.08416443974181577</v>
       </c>
       <c r="C11">
-        <v>-0.0170155206493732</v>
+        <v>0.01223594014986932</v>
       </c>
       <c r="D11">
-        <v>0.1245548229198842</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1282049298870586</v>
+      </c>
+      <c r="E11">
+        <v>0.05933959500559893</v>
+      </c>
+      <c r="F11">
+        <v>-0.01847993245758269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09142702435987125</v>
+        <v>0.08688142057327321</v>
       </c>
       <c r="C12">
-        <v>-0.01495984902783688</v>
+        <v>0.009594208405590452</v>
       </c>
       <c r="D12">
-        <v>0.1299065519642482</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1413002424300334</v>
+      </c>
+      <c r="E12">
+        <v>0.06168351570102765</v>
+      </c>
+      <c r="F12">
+        <v>-0.02067702029751872</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04423931428165405</v>
+        <v>0.04468294028996084</v>
       </c>
       <c r="C13">
-        <v>-0.007844310081766852</v>
+        <v>0.004082521812070471</v>
       </c>
       <c r="D13">
-        <v>0.05077391161453473</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05890862802163099</v>
+      </c>
+      <c r="E13">
+        <v>0.002154254233699508</v>
+      </c>
+      <c r="F13">
+        <v>-0.01748540966112782</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01966740622761632</v>
+        <v>0.0223608591878029</v>
       </c>
       <c r="C14">
-        <v>-0.015068260011647</v>
+        <v>0.01395168525780568</v>
       </c>
       <c r="D14">
-        <v>0.03618349232019524</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03948559352133012</v>
+      </c>
+      <c r="E14">
+        <v>0.02706561343953744</v>
+      </c>
+      <c r="F14">
+        <v>-0.02465455219425477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.0339273932854653</v>
+        <v>0.03487311745385779</v>
       </c>
       <c r="C15">
-        <v>-0.00838319159161951</v>
+        <v>0.006714896138462147</v>
       </c>
       <c r="D15">
-        <v>0.05323508225451284</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.0531817435918733</v>
+      </c>
+      <c r="E15">
+        <v>0.01700922573158326</v>
+      </c>
+      <c r="F15">
+        <v>-0.0308709707213236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.0672051182435781</v>
+        <v>0.06670236329940969</v>
       </c>
       <c r="C16">
-        <v>-0.005539578214031373</v>
+        <v>0.0009538605458338286</v>
       </c>
       <c r="D16">
-        <v>0.1246856412524201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1351611032856411</v>
+      </c>
+      <c r="E16">
+        <v>0.07015553079992198</v>
+      </c>
+      <c r="F16">
+        <v>-0.02015802636165255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.002495953036796055</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.001112115419256004</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002123890920823885</v>
+      </c>
+      <c r="E17">
+        <v>0.005335045204137189</v>
+      </c>
+      <c r="F17">
+        <v>0.004370467243393523</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.029999614455817</v>
+        <v>0.04661308431513771</v>
       </c>
       <c r="C18">
-        <v>0.000310885294820792</v>
+        <v>0.0001608125843942568</v>
       </c>
       <c r="D18">
-        <v>0.02495362965502904</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.02349371528454306</v>
+      </c>
+      <c r="E18">
+        <v>-0.003372724926268935</v>
+      </c>
+      <c r="F18">
+        <v>0.01650981753966111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06203839402456621</v>
+        <v>0.06157243123905125</v>
       </c>
       <c r="C20">
-        <v>-0.00506462422532178</v>
+        <v>0.002369697214458678</v>
       </c>
       <c r="D20">
-        <v>0.08260830434840274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.08599092655434833</v>
+      </c>
+      <c r="E20">
+        <v>0.06622304840879324</v>
+      </c>
+      <c r="F20">
+        <v>-0.03720809848560425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.03963645985071344</v>
+        <v>0.04177484120045968</v>
       </c>
       <c r="C21">
-        <v>-0.009838299022705414</v>
+        <v>0.007293221751669356</v>
       </c>
       <c r="D21">
-        <v>0.04404074389585403</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.04328641435556768</v>
+      </c>
+      <c r="E21">
+        <v>5.080119636465937e-05</v>
+      </c>
+      <c r="F21">
+        <v>0.012823713294658</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04538882595832537</v>
+        <v>0.04439324998397728</v>
       </c>
       <c r="C22">
-        <v>-0.004658092836151703</v>
+        <v>0.002668544294311912</v>
       </c>
       <c r="D22">
-        <v>0.002103934595239508</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.01321209380467996</v>
+      </c>
+      <c r="E22">
+        <v>0.03668318575479237</v>
+      </c>
+      <c r="F22">
+        <v>0.101551813334494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04539755518904683</v>
+        <v>0.04440070247918345</v>
       </c>
       <c r="C23">
-        <v>-0.004660498829469624</v>
+        <v>0.002670794906175745</v>
       </c>
       <c r="D23">
-        <v>0.002095160160556964</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.01320533113957472</v>
+      </c>
+      <c r="E23">
+        <v>0.03669056634406068</v>
+      </c>
+      <c r="F23">
+        <v>0.1015935493236842</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07536372161649571</v>
+        <v>0.0736064826034962</v>
       </c>
       <c r="C24">
-        <v>-0.006671732738880222</v>
+        <v>0.002244722121647732</v>
       </c>
       <c r="D24">
-        <v>0.1274045918837284</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.129506112529217</v>
+      </c>
+      <c r="E24">
+        <v>0.05499139544153706</v>
+      </c>
+      <c r="F24">
+        <v>-0.0285120808224066</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08052047632060137</v>
+        <v>0.07812548719669354</v>
       </c>
       <c r="C25">
-        <v>-0.009311429204857228</v>
+        <v>0.005177869427498712</v>
       </c>
       <c r="D25">
-        <v>0.1161048369223878</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1184298028036026</v>
+      </c>
+      <c r="E25">
+        <v>0.04400434128483968</v>
+      </c>
+      <c r="F25">
+        <v>-0.02570892796962726</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05708215982330517</v>
+        <v>0.06209467181571915</v>
       </c>
       <c r="C26">
-        <v>-0.01917523637083698</v>
+        <v>0.01645980941069921</v>
       </c>
       <c r="D26">
-        <v>0.05400068978817529</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.05986638523240784</v>
+      </c>
+      <c r="E26">
+        <v>0.03656682423932796</v>
+      </c>
+      <c r="F26">
+        <v>0.004679080430366982</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1515244049581224</v>
+        <v>0.1561949996178059</v>
       </c>
       <c r="C28">
-        <v>-0.02826153571962622</v>
+        <v>0.03184856278618836</v>
       </c>
       <c r="D28">
-        <v>-0.2440930775478739</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2425079707247423</v>
+      </c>
+      <c r="E28">
+        <v>-0.06164861758856911</v>
+      </c>
+      <c r="F28">
+        <v>-0.01938421308326618</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02608038960168448</v>
+        <v>0.02802889425472241</v>
       </c>
       <c r="C29">
-        <v>-0.00996562693537879</v>
+        <v>0.009209951937483913</v>
       </c>
       <c r="D29">
-        <v>0.0354421930947384</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03712207560437292</v>
+      </c>
+      <c r="E29">
+        <v>0.01737267248771893</v>
+      </c>
+      <c r="F29">
+        <v>0.01521818037523394</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05144121925432039</v>
+        <v>0.05072015010792438</v>
       </c>
       <c r="C30">
-        <v>-0.005777764155643957</v>
+        <v>0.002266252271649687</v>
       </c>
       <c r="D30">
-        <v>0.0751109129695328</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08070694295364751</v>
+      </c>
+      <c r="E30">
+        <v>0.01820376761956837</v>
+      </c>
+      <c r="F30">
+        <v>-0.1058060558973842</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05147460291602501</v>
+        <v>0.05182925361819827</v>
       </c>
       <c r="C31">
-        <v>-0.0190655455462765</v>
+        <v>0.01712192082301545</v>
       </c>
       <c r="D31">
-        <v>0.02892896161998717</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03106438520137849</v>
+      </c>
+      <c r="E31">
+        <v>0.03307785808471152</v>
+      </c>
+      <c r="F31">
+        <v>0.008768070904080934</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04386328334936603</v>
+        <v>0.04954631653050353</v>
       </c>
       <c r="C32">
-        <v>-0.001530986733776407</v>
+        <v>-0.001153669649630743</v>
       </c>
       <c r="D32">
-        <v>0.0317507318999452</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03572977958210117</v>
+      </c>
+      <c r="E32">
+        <v>0.03545757066871876</v>
+      </c>
+      <c r="F32">
+        <v>0.002475737813013901</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08591151577157363</v>
+        <v>0.08753224378353062</v>
       </c>
       <c r="C33">
-        <v>-0.01346047882437113</v>
+        <v>0.008334824480147803</v>
       </c>
       <c r="D33">
-        <v>0.09980493261225591</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1103449750612531</v>
+      </c>
+      <c r="E33">
+        <v>0.0588800973498897</v>
+      </c>
+      <c r="F33">
+        <v>-0.02713061953357856</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06359478715207438</v>
+        <v>0.06352243527614779</v>
       </c>
       <c r="C34">
-        <v>-0.01535251003306192</v>
+        <v>0.01067017321384268</v>
       </c>
       <c r="D34">
-        <v>0.1047024138917663</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1161534755458062</v>
+      </c>
+      <c r="E34">
+        <v>0.04460729724685108</v>
+      </c>
+      <c r="F34">
+        <v>-0.04277013718219178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02694515439536776</v>
+        <v>0.02819615744221995</v>
       </c>
       <c r="C35">
-        <v>-0.005104525072069527</v>
+        <v>0.004494408032953086</v>
       </c>
       <c r="D35">
-        <v>0.01021550934840282</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01319453267656084</v>
+      </c>
+      <c r="E35">
+        <v>0.02025070992421023</v>
+      </c>
+      <c r="F35">
+        <v>0.0005614081110659534</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02271265293088206</v>
+        <v>0.02714905225980612</v>
       </c>
       <c r="C36">
-        <v>-0.008342737950715324</v>
+        <v>0.007469309753003339</v>
       </c>
       <c r="D36">
-        <v>0.04196297240743446</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04516461139961805</v>
+      </c>
+      <c r="E36">
+        <v>0.02407154140446977</v>
+      </c>
+      <c r="F36">
+        <v>-0.02112812317324969</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003190583701345983</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0008535739631257266</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003212365045916795</v>
+      </c>
+      <c r="E37">
+        <v>0.001044476332651725</v>
+      </c>
+      <c r="F37">
+        <v>0.001337914477730225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.09974262922549804</v>
+        <v>0.09160604226214526</v>
       </c>
       <c r="C39">
-        <v>-0.02125135689160424</v>
+        <v>0.01556224109640781</v>
       </c>
       <c r="D39">
-        <v>0.1608152054258873</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1578168550523746</v>
+      </c>
+      <c r="E39">
+        <v>0.07261234586169189</v>
+      </c>
+      <c r="F39">
+        <v>-0.01096820026187983</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.04350538462779788</v>
+        <v>0.0490090473210185</v>
       </c>
       <c r="C40">
-        <v>-0.01207958969200862</v>
+        <v>0.01052191440150522</v>
       </c>
       <c r="D40">
-        <v>0.03542103986496009</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04183073351799873</v>
+      </c>
+      <c r="E40">
+        <v>0.007858185258087779</v>
+      </c>
+      <c r="F40">
+        <v>0.0196722575433579</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02641513865700561</v>
+        <v>0.02852523592346042</v>
       </c>
       <c r="C41">
-        <v>-0.008534906718711741</v>
+        <v>0.008060131587036503</v>
       </c>
       <c r="D41">
-        <v>0.01424182409172325</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01565545394287164</v>
+      </c>
+      <c r="E41">
+        <v>0.01295020902943696</v>
+      </c>
+      <c r="F41">
+        <v>0.0102245210178715</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04032415463604225</v>
+        <v>0.03945585113402964</v>
       </c>
       <c r="C43">
-        <v>-0.009191877657251345</v>
+        <v>0.008351047310600735</v>
       </c>
       <c r="D43">
-        <v>0.02483583759672605</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02491367300665832</v>
+      </c>
+      <c r="E43">
+        <v>0.03106856625558205</v>
+      </c>
+      <c r="F43">
+        <v>0.0215345649052093</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06134377644850857</v>
+        <v>0.06910121765224132</v>
       </c>
       <c r="C44">
-        <v>-0.0220616682928781</v>
+        <v>0.01878993389930474</v>
       </c>
       <c r="D44">
-        <v>0.07449492234077659</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.08444903722525836</v>
+      </c>
+      <c r="E44">
+        <v>0.07701386831945507</v>
+      </c>
+      <c r="F44">
+        <v>-0.2129236534397631</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.0001969974042792729</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>3.565194117892185e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-9.830571252333325e-06</v>
+      </c>
+      <c r="E45">
+        <v>-0.0004310700146952456</v>
+      </c>
+      <c r="F45">
+        <v>7.317414319154285e-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02337902455485717</v>
+        <v>0.02564576491420253</v>
       </c>
       <c r="C46">
-        <v>-0.005110375969970955</v>
+        <v>0.004386785441592623</v>
       </c>
       <c r="D46">
-        <v>0.01877296645636109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.02078492186821778</v>
+      </c>
+      <c r="E46">
+        <v>0.03585824868287161</v>
+      </c>
+      <c r="F46">
+        <v>0.02117905700929176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05372549312618519</v>
+        <v>0.05268553811825399</v>
       </c>
       <c r="C47">
-        <v>-0.007426360843565885</v>
+        <v>0.005801328319376391</v>
       </c>
       <c r="D47">
-        <v>0.01438628972948327</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01597549416181968</v>
+      </c>
+      <c r="E47">
+        <v>0.02712642740999242</v>
+      </c>
+      <c r="F47">
+        <v>0.04274042777428162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04945684932296003</v>
+        <v>0.05314742422243868</v>
       </c>
       <c r="C48">
-        <v>-0.006404662054140618</v>
+        <v>0.003999061571036496</v>
       </c>
       <c r="D48">
-        <v>0.06050317554627906</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.06132087203797552</v>
+      </c>
+      <c r="E48">
+        <v>0.008170299759604257</v>
+      </c>
+      <c r="F48">
+        <v>-0.01744677832553753</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1942823720157833</v>
+        <v>0.1967905087766582</v>
       </c>
       <c r="C49">
-        <v>-0.02854037783819588</v>
+        <v>0.0247112314270822</v>
       </c>
       <c r="D49">
-        <v>-0.01422412670030446</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.008419069575063741</v>
+      </c>
+      <c r="E49">
+        <v>0.0175445386941154</v>
+      </c>
+      <c r="F49">
+        <v>-0.05315885823156288</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04938980789283827</v>
+        <v>0.05221249031861014</v>
       </c>
       <c r="C50">
-        <v>-0.0147283940634186</v>
+        <v>0.01326785838757324</v>
       </c>
       <c r="D50">
-        <v>0.02752906218376156</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02954614994817024</v>
+      </c>
+      <c r="E50">
+        <v>0.03540342153490864</v>
+      </c>
+      <c r="F50">
+        <v>-0.00818948595174084</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1518538547554507</v>
+        <v>0.1452517834378313</v>
       </c>
       <c r="C52">
-        <v>-0.0258973103851438</v>
+        <v>0.02182436883027705</v>
       </c>
       <c r="D52">
-        <v>0.04390987941008075</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04646148266702479</v>
+      </c>
+      <c r="E52">
+        <v>0.03834555417732086</v>
+      </c>
+      <c r="F52">
+        <v>-0.03760108563490257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1751261149330313</v>
+        <v>0.1674936837588702</v>
       </c>
       <c r="C53">
-        <v>-0.02902031349874632</v>
+        <v>0.02600663457627429</v>
       </c>
       <c r="D53">
-        <v>0.003690452095587458</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.006707896355101764</v>
+      </c>
+      <c r="E53">
+        <v>0.04730682082362194</v>
+      </c>
+      <c r="F53">
+        <v>-0.08211995471491902</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01451538921767008</v>
+        <v>0.01763992277526144</v>
       </c>
       <c r="C54">
-        <v>-0.01195293560803197</v>
+        <v>0.01120129203466054</v>
       </c>
       <c r="D54">
-        <v>0.03182039314972251</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03143344719722739</v>
+      </c>
+      <c r="E54">
+        <v>0.02119657556576663</v>
+      </c>
+      <c r="F54">
+        <v>0.002021609924627329</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1202116947730745</v>
+        <v>0.1174353139543802</v>
       </c>
       <c r="C55">
-        <v>-0.02520636666885752</v>
+        <v>0.02265839514690886</v>
       </c>
       <c r="D55">
-        <v>0.00764274248097455</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01517473055457549</v>
+      </c>
+      <c r="E55">
+        <v>0.04584875896132599</v>
+      </c>
+      <c r="F55">
+        <v>-0.02971783378484025</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1805376171918454</v>
+        <v>0.1745619600727981</v>
       </c>
       <c r="C56">
-        <v>-0.02720825494815158</v>
+        <v>0.02446693358049651</v>
       </c>
       <c r="D56">
-        <v>-0.00488536320229292</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001111916972041771</v>
+      </c>
+      <c r="E56">
+        <v>0.04380915564867573</v>
+      </c>
+      <c r="F56">
+        <v>-0.04118526377004006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04526595733102959</v>
+        <v>0.04464481939489705</v>
       </c>
       <c r="C58">
-        <v>-0.004193357714187825</v>
+        <v>0.0003574802124026764</v>
       </c>
       <c r="D58">
-        <v>0.08053295764008069</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.08762780343155778</v>
+      </c>
+      <c r="E58">
+        <v>0.04465917054512568</v>
+      </c>
+      <c r="F58">
+        <v>0.04310419156053804</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1700415217745888</v>
+        <v>0.1750274528521867</v>
       </c>
       <c r="C59">
-        <v>-0.02763414988637315</v>
+        <v>0.03058785854430277</v>
       </c>
       <c r="D59">
-        <v>-0.2132413156456879</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2116462558875556</v>
+      </c>
+      <c r="E59">
+        <v>-0.05759153161976426</v>
+      </c>
+      <c r="F59">
+        <v>0.06489264964224696</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2235691607585638</v>
+        <v>0.2186174108665661</v>
       </c>
       <c r="C60">
-        <v>-0.007891552431210079</v>
+        <v>0.003512214550249278</v>
       </c>
       <c r="D60">
-        <v>0.01896066418216839</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01894955112619965</v>
+      </c>
+      <c r="E60">
+        <v>-0.02037546255007833</v>
+      </c>
+      <c r="F60">
+        <v>0.01646259627700511</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.07386722625872509</v>
+        <v>0.06981578725796861</v>
       </c>
       <c r="C61">
-        <v>-0.01532213406202574</v>
+        <v>0.01065021969023412</v>
       </c>
       <c r="D61">
-        <v>0.1187355771094322</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1207831932651532</v>
+      </c>
+      <c r="E61">
+        <v>0.04541821475355053</v>
+      </c>
+      <c r="F61">
+        <v>-0.0001398239523200155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1712510803547845</v>
+        <v>0.1669569997538482</v>
       </c>
       <c r="C62">
-        <v>-0.02969327141479981</v>
+        <v>0.02659171384013769</v>
       </c>
       <c r="D62">
-        <v>0.002845617246072354</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.00789122400585549</v>
+      </c>
+      <c r="E62">
+        <v>0.04799581110008205</v>
+      </c>
+      <c r="F62">
+        <v>-0.02392822425856971</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04217634821694918</v>
+        <v>0.04755584153351818</v>
       </c>
       <c r="C63">
-        <v>-0.00577422837341507</v>
+        <v>0.003371025974301136</v>
       </c>
       <c r="D63">
-        <v>0.06387813439231659</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07200373707061543</v>
+      </c>
+      <c r="E63">
+        <v>0.03319972030937922</v>
+      </c>
+      <c r="F63">
+        <v>0.00191845331794389</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1140818781983508</v>
+        <v>0.1113731548710672</v>
       </c>
       <c r="C64">
-        <v>-0.01960884321528157</v>
+        <v>0.01584311184180304</v>
       </c>
       <c r="D64">
-        <v>0.04774308191417274</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05109001233053075</v>
+      </c>
+      <c r="E64">
+        <v>0.03370823200667554</v>
+      </c>
+      <c r="F64">
+        <v>-0.02247847063439084</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.150433261958331</v>
+        <v>0.1561153077924248</v>
       </c>
       <c r="C65">
-        <v>-0.04295138068916932</v>
+        <v>0.04150021849320121</v>
       </c>
       <c r="D65">
-        <v>-0.04825206485266071</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03714699781954254</v>
+      </c>
+      <c r="E65">
+        <v>0.01626680150685386</v>
+      </c>
+      <c r="F65">
+        <v>-0.05058614837807498</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1208722924771629</v>
+        <v>0.1106504344326461</v>
       </c>
       <c r="C66">
-        <v>-0.01995187818484667</v>
+        <v>0.0137655023652998</v>
       </c>
       <c r="D66">
-        <v>0.140830530907749</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1435014858259564</v>
+      </c>
+      <c r="E66">
+        <v>0.06808767097714469</v>
+      </c>
+      <c r="F66">
+        <v>-0.01356040993967242</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.0597651152159448</v>
+        <v>0.05271076050502008</v>
       </c>
       <c r="C67">
-        <v>-0.006386234082297572</v>
+        <v>0.003970290238194714</v>
       </c>
       <c r="D67">
-        <v>0.05481799548518976</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05719578364464752</v>
+      </c>
+      <c r="E67">
+        <v>0.02207859245964385</v>
+      </c>
+      <c r="F67">
+        <v>0.08516716309181234</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1215801790914438</v>
+        <v>0.1277473389671596</v>
       </c>
       <c r="C68">
-        <v>-0.03634137208227774</v>
+        <v>0.0411065087301107</v>
       </c>
       <c r="D68">
-        <v>-0.248937905134517</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2486575867117319</v>
+      </c>
+      <c r="E68">
+        <v>-0.09047252795858318</v>
+      </c>
+      <c r="F68">
+        <v>-0.03066850774097855</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03918577940250167</v>
+        <v>0.03871160185511715</v>
       </c>
       <c r="C69">
-        <v>-0.003417556401190665</v>
+        <v>0.002446645950285303</v>
       </c>
       <c r="D69">
-        <v>0.009330029581202033</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.009763847564109219</v>
+      </c>
+      <c r="E69">
+        <v>0.03249211945189545</v>
+      </c>
+      <c r="F69">
+        <v>0.0200714564735374</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.0698967620606037</v>
+        <v>0.07107839695072986</v>
       </c>
       <c r="C70">
-        <v>0.02261172609968739</v>
+        <v>-0.0240388150965359</v>
       </c>
       <c r="D70">
-        <v>0.04149183852614984</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.03892027353311878</v>
+      </c>
+      <c r="E70">
+        <v>-0.03871835382974821</v>
+      </c>
+      <c r="F70">
+        <v>0.3623303170373132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.141708909196726</v>
+        <v>0.1487866664676418</v>
       </c>
       <c r="C71">
-        <v>-0.04219539457247444</v>
+        <v>0.04672638896452541</v>
       </c>
       <c r="D71">
-        <v>-0.262445334086702</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2577500668242059</v>
+      </c>
+      <c r="E71">
+        <v>-0.09911565626387138</v>
+      </c>
+      <c r="F71">
+        <v>-0.0308163864637597</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1390344078006261</v>
+        <v>0.1452630504386599</v>
       </c>
       <c r="C72">
-        <v>-0.03367694855024227</v>
+        <v>0.03234717993125937</v>
       </c>
       <c r="D72">
-        <v>0.008414717307201643</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.005558671453750337</v>
+      </c>
+      <c r="E72">
+        <v>0.04962376213242264</v>
+      </c>
+      <c r="F72">
+        <v>-0.03117539031124863</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.194695756605364</v>
+        <v>0.1994724577028276</v>
       </c>
       <c r="C73">
-        <v>-0.02187641800659201</v>
+        <v>0.01686182238580182</v>
       </c>
       <c r="D73">
-        <v>0.006042010747029622</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01325386575641999</v>
+      </c>
+      <c r="E73">
+        <v>0.0621252464192757</v>
+      </c>
+      <c r="F73">
+        <v>-0.01120298558915497</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08797927074102614</v>
+        <v>0.08808855100543023</v>
       </c>
       <c r="C74">
-        <v>-0.01674780533471526</v>
+        <v>0.01473949744746331</v>
       </c>
       <c r="D74">
-        <v>0.01261209232883934</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01784314330011457</v>
+      </c>
+      <c r="E74">
+        <v>0.05137299483677982</v>
+      </c>
+      <c r="F74">
+        <v>-0.04948841011927883</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1287619920882173</v>
+        <v>0.1212905452977526</v>
       </c>
       <c r="C75">
-        <v>-0.03502199891892713</v>
+        <v>0.03165424328976453</v>
       </c>
       <c r="D75">
-        <v>0.02664038251572623</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03166058611032024</v>
+      </c>
+      <c r="E75">
+        <v>0.06377137557550186</v>
+      </c>
+      <c r="F75">
+        <v>-0.01148337839696409</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07799796731980774</v>
+        <v>0.09164817588848312</v>
       </c>
       <c r="C77">
-        <v>-0.01451755495865531</v>
+        <v>0.01101307895776261</v>
       </c>
       <c r="D77">
-        <v>0.1155223900853124</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1157160057816039</v>
+      </c>
+      <c r="E77">
+        <v>0.04910572717646156</v>
+      </c>
+      <c r="F77">
+        <v>-0.0412775826336161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09517747951416798</v>
+        <v>0.09740259572854822</v>
       </c>
       <c r="C78">
-        <v>-0.04328818488907462</v>
+        <v>0.04030844454900726</v>
       </c>
       <c r="D78">
-        <v>0.1233988862765696</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1197934167497934</v>
+      </c>
+      <c r="E78">
+        <v>0.07434389639034593</v>
+      </c>
+      <c r="F78">
+        <v>-0.03832348519217636</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1691963038900029</v>
+        <v>0.1646636547985108</v>
       </c>
       <c r="C79">
-        <v>-0.03342595181992355</v>
+        <v>0.02982139863295605</v>
       </c>
       <c r="D79">
-        <v>0.01388494359640333</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01928959500240527</v>
+      </c>
+      <c r="E79">
+        <v>0.05076222538359412</v>
+      </c>
+      <c r="F79">
+        <v>-0.007829960954853079</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07902815969953277</v>
+        <v>0.07717601673054413</v>
       </c>
       <c r="C80">
-        <v>-0.004034557387644912</v>
+        <v>0.001690185678707597</v>
       </c>
       <c r="D80">
-        <v>0.04609811256377876</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04835272525181022</v>
+      </c>
+      <c r="E80">
+        <v>0.05017927193101216</v>
+      </c>
+      <c r="F80">
+        <v>0.04771481611390768</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1166717416721498</v>
+        <v>0.1106043783379473</v>
       </c>
       <c r="C81">
-        <v>-0.03685162248320736</v>
+        <v>0.0349753711960856</v>
       </c>
       <c r="D81">
-        <v>0.003405659666022884</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.008962646484902042</v>
+      </c>
+      <c r="E81">
+        <v>0.06029382180507098</v>
+      </c>
+      <c r="F81">
+        <v>-0.002738338745073998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1624909254804602</v>
+        <v>0.1606480344534</v>
       </c>
       <c r="C82">
-        <v>-0.03291573637346885</v>
+        <v>0.03000762482321716</v>
       </c>
       <c r="D82">
-        <v>0.0008777404239103982</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.002067613186410729</v>
+      </c>
+      <c r="E82">
+        <v>0.0451570568153034</v>
+      </c>
+      <c r="F82">
+        <v>-0.08141124224532695</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05693666383722628</v>
+        <v>0.05236646034530188</v>
       </c>
       <c r="C83">
-        <v>-0.00642782851594271</v>
+        <v>0.004237841045644102</v>
       </c>
       <c r="D83">
-        <v>0.04369187493068497</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04315733208546628</v>
+      </c>
+      <c r="E83">
+        <v>0.009641971880816197</v>
+      </c>
+      <c r="F83">
+        <v>0.0231846649805184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05422130929176372</v>
+        <v>0.05100696503887006</v>
       </c>
       <c r="C84">
-        <v>-0.01313912185267406</v>
+        <v>0.01060239340141365</v>
       </c>
       <c r="D84">
-        <v>0.07200935504079085</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07279593621728736</v>
+      </c>
+      <c r="E84">
+        <v>0.02254401811616156</v>
+      </c>
+      <c r="F84">
+        <v>-0.004987772536614191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1400434628119527</v>
+        <v>0.1344961117932774</v>
       </c>
       <c r="C85">
-        <v>-0.03636174723865573</v>
+        <v>0.03355640496194437</v>
       </c>
       <c r="D85">
-        <v>0.009176104863794983</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01313593126025145</v>
+      </c>
+      <c r="E85">
+        <v>0.05099495075555165</v>
+      </c>
+      <c r="F85">
+        <v>-0.0543221870668276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08161049151873681</v>
+        <v>0.08053272856255421</v>
       </c>
       <c r="C86">
-        <v>0.004884202333242777</v>
+        <v>-0.00690668337310358</v>
       </c>
       <c r="D86">
-        <v>0.0321549546044155</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05737882270913236</v>
+      </c>
+      <c r="E86">
+        <v>0.06110572320374177</v>
+      </c>
+      <c r="F86">
+        <v>0.8088378147836929</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.08957803819018745</v>
+        <v>0.08957264464690812</v>
       </c>
       <c r="C87">
-        <v>-0.02711740431085348</v>
+        <v>0.02258172334617057</v>
       </c>
       <c r="D87">
-        <v>0.08702804171626354</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0896365182735453</v>
+      </c>
+      <c r="E87">
+        <v>-0.0620692119694421</v>
+      </c>
+      <c r="F87">
+        <v>-0.08277999575764697</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06241410826827581</v>
+        <v>0.06111912156962068</v>
       </c>
       <c r="C88">
-        <v>-0.006860446114972503</v>
+        <v>0.004500427047138249</v>
       </c>
       <c r="D88">
-        <v>0.05985154927153008</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.05773110404523597</v>
+      </c>
+      <c r="E88">
+        <v>0.03462809613907506</v>
+      </c>
+      <c r="F88">
+        <v>-0.004299446426902856</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1293074979731888</v>
+        <v>0.1344390487481118</v>
       </c>
       <c r="C89">
-        <v>-0.01621518483613987</v>
+        <v>0.02088852842018351</v>
       </c>
       <c r="D89">
-        <v>-0.2260371499267534</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2320770910759793</v>
+      </c>
+      <c r="E89">
+        <v>-0.09346419371702297</v>
+      </c>
+      <c r="F89">
+        <v>-0.02136972761494639</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1531142440946085</v>
+        <v>0.163980199268289</v>
       </c>
       <c r="C90">
-        <v>-0.03881002215296225</v>
+        <v>0.04401185964353757</v>
       </c>
       <c r="D90">
-        <v>-0.25046900364141</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2546133433222361</v>
+      </c>
+      <c r="E90">
+        <v>-0.118789974160407</v>
+      </c>
+      <c r="F90">
+        <v>-0.0261023045569645</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1256418096329725</v>
+        <v>0.1207556368473457</v>
       </c>
       <c r="C91">
-        <v>-0.02696823819370282</v>
+        <v>0.02535978790304304</v>
       </c>
       <c r="D91">
-        <v>-0.01978546554621666</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01512387698674185</v>
+      </c>
+      <c r="E91">
+        <v>0.05964507769084387</v>
+      </c>
+      <c r="F91">
+        <v>0.02612896246744604</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1524164351763959</v>
+        <v>0.1561469281430246</v>
       </c>
       <c r="C92">
-        <v>-0.02939972074998549</v>
+        <v>0.03423970856374764</v>
       </c>
       <c r="D92">
-        <v>-0.2783295725363965</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2830135193434299</v>
+      </c>
+      <c r="E92">
+        <v>-0.1062238900154495</v>
+      </c>
+      <c r="F92">
+        <v>-0.01285881562338017</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1568712017112156</v>
+        <v>0.166025920827691</v>
       </c>
       <c r="C93">
-        <v>-0.03445178007532387</v>
+        <v>0.03850651112501802</v>
       </c>
       <c r="D93">
-        <v>-0.244383252592858</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2488455630054641</v>
+      </c>
+      <c r="E93">
+        <v>-0.07046830788514426</v>
+      </c>
+      <c r="F93">
+        <v>-0.02188167386303672</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1274754590776994</v>
+        <v>0.1203180179158813</v>
       </c>
       <c r="C94">
-        <v>-0.0309434488865877</v>
+        <v>0.0272096760351373</v>
       </c>
       <c r="D94">
-        <v>0.03944854039469189</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04316665304996527</v>
+      </c>
+      <c r="E94">
+        <v>0.06723995439708809</v>
+      </c>
+      <c r="F94">
+        <v>-0.01423077707257556</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1263789657707559</v>
+        <v>0.1287770158626961</v>
       </c>
       <c r="C95">
-        <v>-0.01280755108586475</v>
+        <v>0.007625375178435955</v>
       </c>
       <c r="D95">
-        <v>0.09722273645404719</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1077827827626269</v>
+      </c>
+      <c r="E95">
+        <v>0.06505713341634353</v>
+      </c>
+      <c r="F95">
+        <v>0.02028340484296805</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1625600930187165</v>
+        <v>0.1464909795633878</v>
       </c>
       <c r="C96">
-        <v>0.980700332419819</v>
+        <v>-0.9821962483611157</v>
       </c>
       <c r="D96">
-        <v>-0.03806523392182902</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05834385000924478</v>
+      </c>
+      <c r="E96">
+        <v>0.05158724181212827</v>
+      </c>
+      <c r="F96">
+        <v>-0.0432098461710899</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1914620569814415</v>
+        <v>0.1940890210422729</v>
       </c>
       <c r="C97">
-        <v>-0.004832220577740316</v>
+        <v>0.0009754469957060723</v>
       </c>
       <c r="D97">
-        <v>-0.02245782395053036</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.02609521530732408</v>
+      </c>
+      <c r="E97">
+        <v>0.01908690702363631</v>
+      </c>
+      <c r="F97">
+        <v>0.1808302959755049</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1939651073929655</v>
+        <v>0.2007993325573811</v>
       </c>
       <c r="C98">
-        <v>-0.0169174010937445</v>
+        <v>0.01172251543297507</v>
       </c>
       <c r="D98">
-        <v>0.01297090301412074</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01445537562514441</v>
+      </c>
+      <c r="E98">
+        <v>-0.1106243041105737</v>
+      </c>
+      <c r="F98">
+        <v>0.08496191114128436</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.0569994632489931</v>
+        <v>0.05694664796999526</v>
       </c>
       <c r="C99">
-        <v>0.0001183447408885991</v>
+        <v>-0.002221169490467688</v>
       </c>
       <c r="D99">
-        <v>0.04358355631640013</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04878574743059213</v>
+      </c>
+      <c r="E99">
+        <v>0.03183796300757664</v>
+      </c>
+      <c r="F99">
+        <v>0.003056586152701203</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1410609368037682</v>
+        <v>0.1310626183894338</v>
       </c>
       <c r="C100">
-        <v>0.03585203095697231</v>
+        <v>-0.04504363768558126</v>
       </c>
       <c r="D100">
-        <v>0.4200131580082408</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3779254508726219</v>
+      </c>
+      <c r="E100">
+        <v>-0.8836269367830952</v>
+      </c>
+      <c r="F100">
+        <v>-0.01002543345726386</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02608922221797652</v>
+        <v>0.02808849979388891</v>
       </c>
       <c r="C101">
-        <v>-0.009979126903384067</v>
+        <v>0.009243693359707072</v>
       </c>
       <c r="D101">
-        <v>0.0349499935823705</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03664806330432501</v>
+      </c>
+      <c r="E101">
+        <v>0.0167763045037661</v>
+      </c>
+      <c r="F101">
+        <v>0.01774122391634815</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
